--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1394219.826753986</v>
+        <v>-1396775.009482517</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>374.0855917330073</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>233.1592965985644</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -829,10 +829,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>80.00124118081871</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>280.3179801725075</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>320.1002441188323</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>181.0859970847335</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>302.9971513426109</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247739</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414546</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>67.33742371513365</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,13 +1111,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>220.7429686314475</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>380.6114382412695</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>200.805213622946</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>142.5647726587068</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>76.098707120312</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,10 +1430,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856646</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>135.5795121770519</v>
       </c>
       <c r="T13" t="n">
-        <v>72.7712602864347</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,16 +1819,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833158</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>159.6155901915581</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>37.40501058442985</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634819</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="21">
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>102.1557845699818</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>216.4795114578124</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>26.13627195705873</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>41.74133133758728</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576175</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261728</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545296</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.425007896998</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,7 +3913,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
         <v>56.98118882652581</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1127.748203495405</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C2" t="n">
-        <v>1127.748203495405</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>1127.748203495405</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>741.959950897161</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>741.959950897161</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410104</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066533</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796419</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535339</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559527</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686085</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106476</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080139</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986313</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962573</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201688</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695168</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507439</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601529</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>825.351820332246</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199102</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>527.3220873375171</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1846.485213562414</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1846.485213562414</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1624.71859813194</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U4" t="n">
-        <v>1624.71859813194</v>
+        <v>1452.459188993594</v>
       </c>
       <c r="V4" t="n">
-        <v>1624.71859813194</v>
+        <v>1197.774700787707</v>
       </c>
       <c r="W4" t="n">
-        <v>1624.71859813194</v>
+        <v>908.3575307507468</v>
       </c>
       <c r="X4" t="n">
-        <v>1396.729047233923</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y4" t="n">
-        <v>1175.936468090393</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1754.744438482649</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C5" t="n">
-        <v>1385.781921542237</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>1385.781921542237</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>999.9936689439928</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>589.0077641543853</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839474</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927146</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792697</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522582</v>
+        <v>2688.485205636701</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.483610522582</v>
+        <v>2315.019447375621</v>
       </c>
       <c r="Y5" t="n">
-        <v>2141.344278546771</v>
+        <v>1924.880115399809</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
@@ -4641,13 +4641,13 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
         <v>765.1517452158137</v>
@@ -4656,16 +4656,16 @@
         <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>231.8553933260943</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C7" t="n">
-        <v>231.8553933260943</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D7" t="n">
-        <v>231.8553933260943</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>231.8553933260943</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>231.8553933260943</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>231.8553933260943</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581906</v>
@@ -4741,34 +4741,34 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.60866391532</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484846</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1326.594608541191</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046023</v>
+        <v>1326.594608541191</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676417</v>
+        <v>1103.62191295387</v>
       </c>
       <c r="X7" t="n">
-        <v>452.6479724696244</v>
+        <v>1103.62191295387</v>
       </c>
       <c r="Y7" t="n">
-        <v>231.8553933260943</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1648.004869410822</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C8" t="n">
-        <v>1648.004869410822</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D8" t="n">
-        <v>1289.739170804071</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E8" t="n">
-        <v>903.9509182058268</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="F8" t="n">
-        <v>492.9650134162193</v>
+        <v>684.4181157012738</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>269.3456655462703</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450755</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450755</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450755</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y8" t="n">
-        <v>2034.604709474943</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="C10" t="n">
-        <v>752.7622949738579</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D10" t="n">
-        <v>602.6456555615222</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E10" t="n">
-        <v>454.7325619791291</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>307.8426144812187</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>307.8426144812187</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4990,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1084.873196648167</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>856.8836457501499</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>856.8836457501499</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5078,7 +5078,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683104</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>659.9487421954793</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C13" t="n">
-        <v>491.0125592675724</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675724</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851793</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851793</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000592</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000592</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2242.968377633621</v>
       </c>
       <c r="T13" t="n">
-        <v>2123.556221965916</v>
+        <v>2023.366912656562</v>
       </c>
       <c r="U13" t="n">
-        <v>1834.480995310114</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V13" t="n">
-        <v>1579.796507104227</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W13" t="n">
-        <v>1290.379337067267</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X13" t="n">
-        <v>1062.389786169249</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y13" t="n">
-        <v>841.5972070257191</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,52 +5270,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.6905094135296</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.131553387299</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.338974243769</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,40 +5525,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>527.7722521572603</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>197.0043242297717</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>197.0043242297717</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="23">
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075809</v>
@@ -6005,10 +6005,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098242</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819173</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695815</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>516.3896878871884</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>369.499740389278</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>202.303641104158</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2404.800122633203</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2221.945288288107</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.963083580261</v>
+        <v>2002.343823311048</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924459</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718572</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783594</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640064</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6239,34 +6239,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6440,61 +6440,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6835,19 +6835,19 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,16 +6947,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,13 +7011,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345477</v>
@@ -7090,46 +7090,46 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954143</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380723</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,16 +7658,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7810,34 +7810,34 @@
         <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-1.876970801006905e-12</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.83613392044617</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>153.0786420574892</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22717,10 +22717,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>8.930911489228606</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>5.893858033105403</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22781,7 +22781,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>62.63359754464823</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>62.63359754465452</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462254</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>45.44677382459273</v>
       </c>
       <c r="T13" t="n">
-        <v>144.6341900408536</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856421</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>138.4949402405122</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>66.09406519747907</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>109.0289520621393</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462226</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>63.36835372228707</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>69.70496293143174</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>114.1584408891651</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>24.63391537253441</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>136398.8395883683</v>
+        <v>136398.8395883682</v>
       </c>
       <c r="C2" t="n">
-        <v>163211.2270999457</v>
+        <v>163211.2270999459</v>
       </c>
       <c r="D2" t="n">
         <v>164208.3539728567</v>
@@ -26323,28 +26323,28 @@
         <v>161429.3199380013</v>
       </c>
       <c r="F2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="G2" t="n">
+        <v>161429.3199380011</v>
+      </c>
+      <c r="H2" t="n">
+        <v>161429.3199380011</v>
+      </c>
+      <c r="I2" t="n">
         <v>161429.3199380012</v>
       </c>
-      <c r="H2" t="n">
-        <v>161429.3199380013</v>
-      </c>
-      <c r="I2" t="n">
-        <v>161429.3199380013</v>
-      </c>
       <c r="J2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="K2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="L2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="M2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="N2" t="n">
         <v>164208.3539728568</v>
@@ -26353,7 +26353,7 @@
         <v>164208.3539728568</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
     </row>
     <row r="3">
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363163</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>12820.12292715301</v>
       </c>
       <c r="C4" t="n">
-        <v>89338.26297207261</v>
+        <v>89338.26297207293</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818166</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26430,34 +26430,34 @@
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683047</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683041</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683037</v>
+        <v>12996.86414683042</v>
       </c>
       <c r="L4" t="n">
-        <v>20987.72340992389</v>
+        <v>20987.7234099239</v>
       </c>
       <c r="M4" t="n">
-        <v>20987.72340992389</v>
+        <v>20987.7234099239</v>
       </c>
       <c r="N4" t="n">
-        <v>20987.72340992389</v>
+        <v>20987.72340992391</v>
       </c>
       <c r="O4" t="n">
         <v>20987.7234099239</v>
       </c>
       <c r="P4" t="n">
-        <v>20987.72340992391</v>
+        <v>20987.72340992392</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1313099.969627771</v>
+        <v>-1313447.588557577</v>
       </c>
       <c r="C6" t="n">
-        <v>-34060.97643352021</v>
+        <v>-34073.44051943171</v>
       </c>
       <c r="D6" t="n">
-        <v>-35909.48550671831</v>
+        <v>-35909.48550671835</v>
       </c>
       <c r="E6" t="n">
-        <v>-278102.5358400915</v>
+        <v>-278137.2737655272</v>
       </c>
       <c r="F6" t="n">
-        <v>47309.92596726373</v>
+        <v>47275.18804182798</v>
       </c>
       <c r="G6" t="n">
-        <v>47309.92596726367</v>
+        <v>47275.18804182786</v>
       </c>
       <c r="H6" t="n">
-        <v>47309.92596726373</v>
+        <v>47275.18804182785</v>
       </c>
       <c r="I6" t="n">
-        <v>47309.92596726374</v>
+        <v>47275.18804182793</v>
       </c>
       <c r="J6" t="n">
-        <v>-170221.2764300139</v>
+        <v>-170256.0143554495</v>
       </c>
       <c r="K6" t="n">
-        <v>47309.92596726377</v>
+        <v>47275.18804182793</v>
       </c>
       <c r="L6" t="n">
-        <v>20628.79671538589</v>
+        <v>20628.79671538566</v>
       </c>
       <c r="M6" t="n">
-        <v>-44998.51322649424</v>
+        <v>-44998.51322649437</v>
       </c>
       <c r="N6" t="n">
-        <v>40056.51470901747</v>
+        <v>40056.5147090175</v>
       </c>
       <c r="O6" t="n">
         <v>40056.5147090175</v>
       </c>
       <c r="P6" t="n">
-        <v>40056.51470901753</v>
+        <v>40056.51470901741</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593299</v>
@@ -26787,34 +26787,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>167.2021310240654</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>46.24381737480212</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>77.41759119918713</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>65.78002970514353</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>30.31028741218392</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>93.8025507643745</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2.19024225561401</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>210.424291216279</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28150,10 +28150,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,10 +31276,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
@@ -31288,31 +31288,31 @@
         <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
         <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
         <v>19.17787942451121</v>
@@ -31361,43 +31361,43 @@
         <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752261</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,19 +31440,19 @@
         <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742022</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
         <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883116</v>
@@ -31467,13 +31467,13 @@
         <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>302.9675447508045</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>579.8936048175474</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,16 +32078,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>400.5469039565762</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>506.566534435233</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338201</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,16 +33737,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,19 +33974,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>314.3020503687023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>342.4905264542646</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34936,28 @@
         <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193721</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701982</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>160.8335108287862</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>448.5518927342141</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>257.9506595121318</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060409</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>364.4325005132147</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394595</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,13 +37388,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37464,13 +37464,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>171.7058059242579</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>211.1488143709312</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
